--- a/SourceCode/2024/Basics-April2024/Jeevan/Task25/Youtube_Info.xlsx
+++ b/SourceCode/2024/Basics-April2024/Jeevan/Task25/Youtube_Info.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\Documents\GitHub\RPA-Developer-in-30-Days\SourceCode\2024\Basics-April2024\Jeevan\Task25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B1C090-5412-495E-9E27-A79A645808AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE4F223-7962-4603-8B5C-B47AB3BBA7F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Information</t>
   </si>
@@ -37,6 +38,66 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KlHlrXGESik</t>
+  </si>
+  <si>
+    <t>1.5K views</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n8-jb1zzGWw</t>
+  </si>
+  <si>
+    <t>1 year ago</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vCdPiNNx8xI</t>
+  </si>
+  <si>
+    <t>1.1K views</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_bS2ZKOemhU&amp;t=2468s</t>
+  </si>
+  <si>
+    <t>10K views</t>
+  </si>
+  <si>
+    <t>Streamed 3 years ago</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4bTTO_ie58o</t>
+  </si>
+  <si>
+    <t>1.3K views</t>
+  </si>
+  <si>
+    <t>2 years ago</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cmEasIbfbig</t>
+  </si>
+  <si>
+    <t>2.5K views</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QV4KQZr8u6c&amp;t=9s</t>
+  </si>
+  <si>
+    <t>166 views</t>
+  </si>
+  <si>
+    <t>Streamed 7 months ago</t>
   </si>
 </sst>
 </file>
@@ -356,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -382,4 +443,114 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>